--- a/Otros Trabajos Encargados/arbol de  problemas  .......xlsx
+++ b/Otros Trabajos Encargados/arbol de  problemas  .......xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Proyecto-034-ESPIRULINA\Otros Trabajos Encargados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11124" windowHeight="8292" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11124" windowHeight="8292" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Causa y Efectos " sheetId="1" r:id="rId1"/>
@@ -830,186 +830,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1039,20 +865,194 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4299,32 +4299,32 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="1:18" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="6" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H6" s="3"/>
@@ -4334,42 +4334,42 @@
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="G10" s="30" t="s">
+      <c r="C10" s="28"/>
+      <c r="G10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="P10" s="30" t="s">
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="P10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="32"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="28"/>
     </row>
     <row r="11" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="G11" s="27" t="s">
+      <c r="C11" s="39"/>
+      <c r="G11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="P11" s="27" t="s">
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="P11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="29"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31"/>
     </row>
     <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
@@ -4385,31 +4385,31 @@
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="38"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:18" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E15" s="5"/>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E16" s="5"/>
@@ -4435,109 +4435,93 @@
     </row>
     <row r="18" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="M19" s="30" t="s">
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="M19" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="32"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="28"/>
     </row>
     <row r="20" spans="2:20" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="M20" s="27" t="s">
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="M20" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="29"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="31"/>
     </row>
     <row r="22" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="N24" s="7" t="s">
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="N24" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="8"/>
-      <c r="P24" s="9"/>
-      <c r="R24" s="7" t="s">
+      <c r="O24" s="36"/>
+      <c r="P24" s="37"/>
+      <c r="R24" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="8"/>
-      <c r="T24" s="9"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="37"/>
     </row>
     <row r="25" spans="2:20" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="N25" s="13" t="s">
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="N25" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="15"/>
-      <c r="R25" s="13" t="s">
+      <c r="O25" s="33"/>
+      <c r="P25" s="34"/>
+      <c r="R25" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="S25" s="14"/>
-      <c r="T25" s="15"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F15:N15"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="M19:Q19"/>
     <mergeCell ref="R24:T24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="F25:H25"/>
@@ -4548,6 +4532,22 @@
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="N24:P24"/>
+    <mergeCell ref="F15:N15"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="F4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="54" orientation="portrait" r:id="rId1"/>
@@ -4562,7 +4562,7 @@
   </sheetPr>
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
@@ -4600,32 +4600,32 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="1:18" ht="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:18" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4638,42 +4638,42 @@
     <row r="8" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="G10" s="7" t="s">
+      <c r="C10" s="37"/>
+      <c r="G10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="39"/>
-      <c r="P10" s="7" t="s">
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="25"/>
+      <c r="P10" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="9"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="37"/>
     </row>
     <row r="11" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="G11" s="40" t="s">
+      <c r="C11" s="34"/>
+      <c r="G11" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="35"/>
-      <c r="P11" s="40" t="s">
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="40"/>
+      <c r="P11" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="42"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="58"/>
     </row>
     <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
@@ -4689,31 +4689,31 @@
     </row>
     <row r="13" spans="1:18" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:18" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="1:18" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E15" s="5"/>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="34"/>
     </row>
     <row r="16" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E16" s="5"/>
@@ -4739,106 +4739,94 @@
     </row>
     <row r="18" spans="2:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="M19" s="7" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="M19" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="9"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="2:20" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="M20" s="40" t="s">
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="M20" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="42"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="58"/>
     </row>
     <row r="21" spans="2:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:20" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="N24" s="7" t="s">
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="N24" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="O24" s="8"/>
-      <c r="P24" s="9"/>
-      <c r="R24" s="7" t="s">
+      <c r="O24" s="36"/>
+      <c r="P24" s="37"/>
+      <c r="R24" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="S24" s="8"/>
-      <c r="T24" s="9"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="37"/>
     </row>
     <row r="25" spans="2:20" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="N25" s="13" t="s">
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="N25" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="15"/>
-      <c r="R25" s="13" t="s">
+      <c r="O25" s="33"/>
+      <c r="P25" s="34"/>
+      <c r="R25" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="S25" s="14"/>
-      <c r="T25" s="15"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="F15:N15"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="F14:N14"/>
     <mergeCell ref="M19:Q19"/>
     <mergeCell ref="R24:T24"/>
     <mergeCell ref="B25:D25"/>
@@ -4853,6 +4841,18 @@
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="N24:P24"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="F15:N15"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="F14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" orientation="portrait" r:id="rId1"/>
@@ -4867,8 +4867,8 @@
   </sheetPr>
   <dimension ref="A5:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4878,80 +4878,80 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:11" ht="80.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="G11" s="49" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="G11" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5002,55 +5002,55 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="72"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="57"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="72"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="72"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="2:17" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="78"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="62"/>
-      <c r="L7" s="63"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="78"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="61" t="s">
+      <c r="N7" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="62"/>
-      <c r="P7" s="63"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="78"/>
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
@@ -5118,54 +5118,54 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="72"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="56"/>
-      <c r="P5" s="57"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="72"/>
     </row>
     <row r="6" spans="2:16" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="78"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="61" t="s">
+      <c r="N6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="62"/>
-      <c r="P6" s="63"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5190,7 +5190,7 @@
   </sheetPr>
   <dimension ref="B2:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -5203,463 +5203,463 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="65"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="65"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="70" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="65"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="70" t="s">
+      <c r="B5" s="79"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="65"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="70" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="65"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="67"/>
-      <c r="C7" s="68">
+      <c r="B7" s="79"/>
+      <c r="C7" s="10">
         <v>1.2</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="65"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="70" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="65"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="70" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="65"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="70" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="65"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="67"/>
-      <c r="C11" s="68">
+      <c r="B11" s="79"/>
+      <c r="C11" s="10">
         <v>1.3</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="65"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="73" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="65"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="74" t="s">
+      <c r="B13" s="79"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="65"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="73" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="65"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="73" t="s">
+      <c r="B15" s="79"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="65"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="73" t="s">
+      <c r="B16" s="79"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="65"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="73" t="s">
+      <c r="B17" s="79"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="65"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="10">
         <v>2.1</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="65"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="75" t="s">
+      <c r="B19" s="79"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="65"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="75" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="65"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="75" t="s">
+      <c r="B21" s="79"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="65"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="67"/>
-      <c r="C22" s="68">
+      <c r="B22" s="79"/>
+      <c r="C22" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="75" t="s">
+      <c r="B23" s="79"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="65"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="75" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="65"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="75" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="65"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="67"/>
-      <c r="C26" s="68">
+      <c r="B26" s="79"/>
+      <c r="C26" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="65"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="76" t="s">
+      <c r="B27" s="79"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="65"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="67"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="73" t="s">
+      <c r="B28" s="79"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="65"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="67"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="73" t="s">
+      <c r="B29" s="79"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="65"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="67"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="73" t="s">
+      <c r="B30" s="79"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="65"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="67"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="73" t="s">
+      <c r="B31" s="79"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="65"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="67"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="73" t="s">
+      <c r="B32" s="79"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="65"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="2:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="68">
+      <c r="C33" s="10">
         <v>3.1</v>
       </c>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="65"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="67"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="75" t="s">
+      <c r="B34" s="79"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="65"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="67"/>
-      <c r="C35" s="68">
+      <c r="B35" s="79"/>
+      <c r="C35" s="10">
         <v>3.2</v>
       </c>
-      <c r="D35" s="69" t="s">
+      <c r="D35" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="65"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="77" t="s">
+      <c r="B36" s="79"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="65"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="67"/>
-      <c r="C37" s="68">
+      <c r="B37" s="79"/>
+      <c r="C37" s="10">
         <v>3.3</v>
       </c>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="65"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="75" t="s">
+      <c r="B38" s="79"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="65"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="75" t="s">
+      <c r="B39" s="79"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="65"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="67"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="75" t="s">
+      <c r="B40" s="79"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="65"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="68">
+      <c r="C41" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D41" s="72" t="s">
+      <c r="D41" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="65"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="79"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="80" t="s">
+      <c r="B42" s="81"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="65"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="79"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="77" t="s">
+      <c r="B43" s="81"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="65"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="79"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="80" t="s">
+      <c r="B44" s="81"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="65"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="79"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="77" t="s">
+      <c r="B45" s="81"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="65"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="79"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="77" t="s">
+      <c r="B46" s="81"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="65"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="79"/>
-      <c r="C47" s="68">
+      <c r="B47" s="81"/>
+      <c r="C47" s="10">
         <v>4.2</v>
       </c>
-      <c r="D47" s="69" t="s">
+      <c r="D47" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="65"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="79"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="77" t="s">
+      <c r="B48" s="81"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="65"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="79"/>
-      <c r="C49" s="68">
+      <c r="B49" s="81"/>
+      <c r="C49" s="10">
         <v>4.3</v>
       </c>
-      <c r="D49" s="69" t="s">
+      <c r="D49" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="65"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="81"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="75" t="s">
+      <c r="B50" s="82"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="65"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D52" s="82" t="s">
+      <c r="D52" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D53" s="77" t="s">
+      <c r="D53" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D54" s="75" t="s">
+      <c r="D54" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D55" s="75" t="s">
+      <c r="D55" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D56" s="75" t="s">
+      <c r="D56" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D57" s="75" t="s">
+      <c r="D57" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D58" s="75" t="s">
+      <c r="D58" s="17" t="s">
         <v>101</v>
       </c>
     </row>
